--- a/data/trans_camb/P19C06-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C06-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P19C06-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C06-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 3,87</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,59</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 0,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 1,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 0,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 2,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 1,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 1,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 1,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 1,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 0,74</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,92%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,86%</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,31; 660,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,42; 647,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,0; 476,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,33; 321,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,09; 438,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,88; 255,94</t>
         </is>
       </c>
     </row>
@@ -1069,42 +1069,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,23</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,32; 1,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,65; 0,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,51; 0,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 1,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,74; 0,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 0,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 0,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 0,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 0,69</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,87%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,29%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,94%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,73%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,5%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,18%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,45; 153,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,81; 84,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,13; 94,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,73; 166,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,22; 49,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,38; 133,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,24; 86,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,63; 30,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,54; 87,69</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 0,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 2,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 0,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 1,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,87; 0,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,71; 0,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 1,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,79; 1,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 0,48</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,87%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,08%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,59%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,69%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,19%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,13%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>-86,68; 301,68</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-49,7; 645,52</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,0; 184,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,64; 89,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,3; 103,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,83; 145,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,48; 141,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,48; 69,8</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 1,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,21; 1,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,51; 0,56</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 1,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 2,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 0,94</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 0,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 1,58</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 0,5</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,17%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,91%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,72%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,94%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>144,43%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,8%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,5%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,26; 152,09</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,84; 170,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,97; 92,72</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,46; 246,62</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,25; 524,31</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,22; 209,87</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,42; 104,11</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,96; 207,7</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,73; 68,41</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 0,45</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 0,68</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 0,29</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 0,86</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 0,83</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 0,49</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,32; 0,5</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 0,57</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 0,24</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,31%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,1%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,03%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,2%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,32%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,29%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,15; 57,79</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,22; 80,74</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,09; 41,83</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,06; 101,26</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,75; 100,42</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,13; 58,41</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,54; 55,42</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,3; 63,09</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,61; 29,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C06-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C06-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,87</t>
+          <t>-1,01; 0,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 1,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 0,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,88</t>
+          <t>-0,19; 2,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,4</t>
+          <t>-0,5; 1,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,12</t>
+          <t>-0,77; 1,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,34</t>
+          <t>-0,3; 1,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,14</t>
+          <t>-0,41; 1,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,59</t>
+          <t>-0,53; 0,65</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-24,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>130,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>68,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>30,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>72,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>54,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>16,57%</t>
         </is>
       </c>
     </row>
@@ -806,39 +806,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,09; 1199,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,06; 941,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,96; 555,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,58; 438,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,88; 414,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,7; 278,6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-0,36</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-0,4</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-0,64</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>-0,26</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,4</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 0,43</t>
+          <t>-1,32; 1,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,72</t>
+          <t>-1,65; 0,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 0,71</t>
+          <t>-1,67; 1,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 2,36</t>
+          <t>-1,28; 1,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 1,89</t>
+          <t>-1,74; 0,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,25</t>
+          <t>-1,32; 0,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,13</t>
+          <t>-0,87; 0,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,43</t>
+          <t>-1,26; 0,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 0,74</t>
+          <t>-1,06; 0,76</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-53,79%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>37,45%</t>
+          <t>-23,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,53%</t>
+          <t>-27,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>-2,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>47,83%</t>
+          <t>-47,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,96%</t>
+          <t>-8,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>44,64%</t>
+          <t>-1,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42,92%</t>
+          <t>-35,5%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>-18,58%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,45; 153,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,81; 84,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,79; 119,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-55,31; 660,54</t>
+          <t>-63,73; 166,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-80,42; 647,63</t>
+          <t>-83,22; 49,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-71,0; 476,19</t>
+          <t>-63,22; 133,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-55,33; 321,35</t>
+          <t>-48,24; 86,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-61,09; 438,42</t>
+          <t>-67,63; 30,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-68,88; 255,94</t>
+          <t>-58,73; 88,15</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,34</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,31</t>
+          <t>-1,12; 0,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 0,74</t>
+          <t>-0,37; 2,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,85</t>
+          <t>-1,26; 0,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,06</t>
+          <t>-1,16; 1,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 0,3</t>
+          <t>-1,87; 0,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 0,89</t>
+          <t>-1,94; 0,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 0,91</t>
+          <t>-0,73; 1,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 0,27</t>
+          <t>-0,79; 1,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 0,69</t>
+          <t>-1,13; 0,41</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>-8,87%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-23,87%</t>
+          <t>106,08%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-24,29%</t>
+          <t>-23,05%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-2,94%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-47,93%</t>
+          <t>-41,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-7,73%</t>
+          <t>-34,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-1,06%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-35,5%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-16,18%</t>
+          <t>-28,71%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-60,45; 153,2</t>
+          <t>-86,68; 301,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-74,81; 84,63</t>
+          <t>-49,7; 645,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-73,13; 94,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,73; 166,57</t>
+          <t>-58,0; 184,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-83,22; 49,81</t>
+          <t>-85,64; 89,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-63,38; 133,42</t>
+          <t>-80,59; 68,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-48,24; 86,11</t>
+          <t>-46,83; 145,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-67,63; 30,19</t>
+          <t>-51,48; 141,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-52,54; 87,69</t>
+          <t>-66,27; 55,87</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,14</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,9</t>
+          <t>-1,27; 1,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 2,79</t>
+          <t>-1,21; 1,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 0,7</t>
+          <t>-1,53; 0,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 1,61</t>
+          <t>-0,73; 1,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 0,52</t>
+          <t>0,24; 2,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 0,69</t>
+          <t>-0,81; 0,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,05</t>
+          <t>-0,71; 0,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,14</t>
+          <t>-0,13; 1,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 0,48</t>
+          <t>-0,8; 0,46</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,87%</t>
+          <t>-15,17%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>106,08%</t>
+          <t>-7,91%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-20,59%</t>
+          <t>-30,99%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>29,94%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-41,69%</t>
+          <t>144,43%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-23,19%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>61,8%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-21,13%</t>
+          <t>-11,89%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-86,68; 301,68</t>
+          <t>-66,26; 152,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-49,7; 645,52</t>
+          <t>-64,84; 170,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,97; 91,23</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-58,0; 184,32</t>
+          <t>-54,46; 246,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-85,64; 89,72</t>
+          <t>6,25; 524,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-73,3; 103,15</t>
+          <t>-51,57; 197,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-46,83; 145,34</t>
+          <t>-47,42; 104,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-51,48; 141,73</t>
+          <t>-12,96; 207,7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-59,48; 69,8</t>
+          <t>-55,09; 62,82</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,17</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,02</t>
+          <t>-0,69; 0,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 1,16</t>
+          <t>-0,52; 0,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,56</t>
+          <t>-0,83; 0,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,33</t>
+          <t>-0,29; 0,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,65</t>
+          <t>-0,37; 0,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 0,94</t>
+          <t>-0,59; 0,44</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 0,76</t>
+          <t>-0,32; 0,5</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 1,58</t>
+          <t>-0,27; 0,57</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,5</t>
+          <t>-0,53; 0,21</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-15,17%</t>
+          <t>-9,31%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-7,91%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-30,72%</t>
+          <t>-24,4%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>29,94%</t>
+          <t>27,03%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>144,43%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>-6,64%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>61,8%</t>
+          <t>13,32%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-10,5%</t>
+          <t>-15,13%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-66,26; 152,09</t>
+          <t>-49,15; 57,79</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-64,84; 170,51</t>
+          <t>-39,22; 80,74</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-75,97; 92,72</t>
+          <t>-61,3; 45,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-54,46; 246,62</t>
+          <t>-22,06; 101,26</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>6,25; 524,31</t>
+          <t>-26,75; 100,42</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-49,22; 209,87</t>
+          <t>-41,87; 55,32</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-47,42; 104,11</t>
+          <t>-25,54; 55,42</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-12,96; 207,7</t>
+          <t>-20,3; 63,09</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-53,73; 68,41</t>
+          <t>-40,86; 23,89</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,31</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-0,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 0,45</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,52; 0,68</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,8; 0,29</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,29; 0,86</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,37; 0,83</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-0,52; 0,49</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,32; 0,5</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-0,27; 0,57</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-0,5; 0,24</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-9,31%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>8,09%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-24,1%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>27,03%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>18,09%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-2,2%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>9,79%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>13,32%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-12,29%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-49,15; 57,79</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-39,22; 80,74</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-58,09; 41,83</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-22,06; 101,26</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-26,75; 100,42</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-38,13; 58,41</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-25,54; 55,42</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-20,3; 63,09</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-37,61; 29,26</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P19C06-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C06-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 0,5</t>
+          <t>-1,03; 0,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 1,25</t>
+          <t>-0,65; 1,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 0,61</t>
+          <t>-0,9; 0,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 2,3</t>
+          <t>-0,22; 2,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,84</t>
+          <t>-0,63; 1,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 1,02</t>
+          <t>-0,79; 0,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,19</t>
+          <t>-0,34; 1,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,12</t>
+          <t>-0,47; 1,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 0,65</t>
+          <t>-0,56; 0,63</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,09; 1199,06</t>
+          <t>-37,87; 977,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-59,06; 941,59</t>
+          <t>-69,81; 786,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,96; 555,29</t>
+          <t>-66,61; 472,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-44,58; 438,2</t>
+          <t>-45,48; 414,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-52,88; 414,17</t>
+          <t>-63,47; 369,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-59,7; 278,6</t>
+          <t>-62,37; 246,69</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,31</t>
+          <t>-1,43; 1,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 0,74</t>
+          <t>-1,55; 0,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 1,02</t>
+          <t>-1,68; 1,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,06</t>
+          <t>-1,12; 1,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 0,3</t>
+          <t>-1,72; 0,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,85</t>
+          <t>-1,41; 0,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 0,91</t>
+          <t>-0,84; 0,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 0,27</t>
+          <t>-1,4; 0,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 0,76</t>
+          <t>-1,15; 0,64</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-60,45; 153,2</t>
+          <t>-66,26; 160,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-74,81; 84,63</t>
+          <t>-72,55; 90,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-79,79; 119,13</t>
+          <t>-81,0; 139,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-63,73; 166,57</t>
+          <t>-60,83; 167,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-83,22; 49,81</t>
+          <t>-84,1; 60,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-63,22; 133,73</t>
+          <t>-64,18; 119,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,24; 86,11</t>
+          <t>-45,78; 100,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-67,63; 30,19</t>
+          <t>-68,26; 31,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-58,73; 88,15</t>
+          <t>-62,13; 65,87</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,9</t>
+          <t>-1,16; 0,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 2,79</t>
+          <t>-0,31; 2,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 0,65</t>
+          <t>-1,16; 0,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 1,61</t>
+          <t>-1,28; 1,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 0,52</t>
+          <t>-1,85; 0,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 0,52</t>
+          <t>-1,82; 0,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,05</t>
+          <t>-0,91; 0,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,14</t>
+          <t>-0,76; 1,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 0,41</t>
+          <t>-1,16; 0,39</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-86,68; 301,68</t>
+          <t>-84,18; 286,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-49,7; 645,52</t>
+          <t>-40,73; 550,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,6; 193,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-58,0; 184,32</t>
+          <t>-58,46; 193,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-85,64; 89,72</t>
+          <t>-86,22; 87,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-80,59; 68,58</t>
+          <t>-76,55; 74,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-46,83; 145,34</t>
+          <t>-56,89; 110,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-51,48; 141,73</t>
+          <t>-49,26; 174,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-66,27; 55,87</t>
+          <t>-67,76; 58,66</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,02</t>
+          <t>-1,34; 0,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 1,16</t>
+          <t>-1,21; 1,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,56</t>
+          <t>-1,6; 0,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,33</t>
+          <t>-0,78; 1,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,65</t>
+          <t>0,25; 2,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 0,9</t>
+          <t>-0,83; 0,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 0,76</t>
+          <t>-0,7; 0,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 1,58</t>
+          <t>-0,15; 1,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,46</t>
+          <t>-0,83; 0,47</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-66,26; 152,09</t>
+          <t>-69,24; 116,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,84; 170,51</t>
+          <t>-66,76; 154,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-76,97; 91,23</t>
+          <t>-77,66; 74,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-54,46; 246,62</t>
+          <t>-56,81; 256,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,25; 524,31</t>
+          <t>3,89; 639,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-51,57; 197,93</t>
+          <t>-54,96; 185,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-47,42; 104,11</t>
+          <t>-47,63; 104,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-12,96; 207,7</t>
+          <t>-14,15; 192,5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-55,09; 62,82</t>
+          <t>-53,82; 58,27</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 0,45</t>
+          <t>-0,71; 0,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,68</t>
+          <t>-0,51; 0,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 0,34</t>
+          <t>-0,86; 0,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 0,86</t>
+          <t>-0,21; 0,91</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 0,83</t>
+          <t>-0,38; 0,74</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 0,44</t>
+          <t>-0,66; 0,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,5</t>
+          <t>-0,32; 0,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 0,57</t>
+          <t>-0,32; 0,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 0,21</t>
+          <t>-0,53; 0,27</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-49,15; 57,79</t>
+          <t>-49,16; 54,42</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-39,22; 80,74</t>
+          <t>-39,23; 92,43</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-61,3; 45,0</t>
+          <t>-60,57; 42,57</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-22,06; 101,26</t>
+          <t>-17,18; 108,3</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-26,75; 100,42</t>
+          <t>-27,42; 86,53</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-41,87; 55,32</t>
+          <t>-43,94; 43,48</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-25,54; 55,42</t>
+          <t>-23,52; 48,82</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-20,3; 63,09</t>
+          <t>-24,37; 59,02</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-40,86; 23,89</t>
+          <t>-39,74; 31,47</t>
         </is>
       </c>
     </row>
